--- a/HomeWorks.xlsx
+++ b/HomeWorks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>Нікуліна Олена</t>
   </si>
@@ -93,6 +93,18 @@
   </si>
   <si>
     <t>Освоєння поняття Змінні та їх основні види</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Студенти</t>
+  </si>
+  <si>
+    <t>Группа J2-18</t>
   </si>
 </sst>
 </file>
@@ -132,7 +144,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -168,11 +180,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -200,6 +221,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,150 +517,158 @@
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="56.85546875" style="5" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="15" width="3.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="15" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+    </row>
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="B2" s="1">
+    <row r="3" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
     </row>
-    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="9">
+    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="9">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
+    <row r="5" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
     </row>
-    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="9">
+    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="9">
         <v>4</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C6" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-    </row>
-    <row r="6" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="9">
-        <v>5</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>18</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>16</v>
@@ -647,38 +679,75 @@
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
+      <c r="K6" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="M6" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
+      <c r="O6" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
+    <row r="7" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="9">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
     </row>
   </sheetData>
   <sortState ref="A1:P1">
     <sortCondition ref="C1"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="E1:O1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/HomeWorks.xlsx
+++ b/HomeWorks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>Нікуліна Олена</t>
   </si>
@@ -105,13 +105,22 @@
   </si>
   <si>
     <t>Группа J2-18</t>
+  </si>
+  <si>
+    <t>Перетворення типів (конвертація)</t>
+  </si>
+  <si>
+    <t>Робота зі змінним та логічні оператори</t>
+  </si>
+  <si>
+    <t>Умовні оператори</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,8 +138,23 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,6 +165,11 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -190,10 +219,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -225,8 +255,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -505,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,7 +665,9 @@
       <c r="I4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="11"/>
+      <c r="J4" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="K4" s="11" t="s">
         <v>23</v>
       </c>
@@ -678,7 +719,9 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
+      <c r="J6" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="K6" s="11" t="s">
         <v>23</v>
       </c>
@@ -706,7 +749,9 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="J7" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="K7" s="11" t="s">
         <v>23</v>
       </c>
@@ -741,6 +786,136 @@
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
     </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="13">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="15">
+        <v>9</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
   </sheetData>
   <sortState ref="A1:P1">
     <sortCondition ref="C1"/>

--- a/HomeWorks.xlsx
+++ b/HomeWorks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
   <si>
     <t>Нікуліна Олена</t>
   </si>
@@ -113,14 +113,29 @@
     <t>Робота зі змінним та логічні оператори</t>
   </si>
   <si>
-    <t>Умовні оператори</t>
+    <t>HomeWork 1 Level Arrays</t>
+  </si>
+  <si>
+    <t>HomeWork 1 Level Loops</t>
+  </si>
+  <si>
+    <t>HomeWork 1 Level Conditions</t>
+  </si>
+  <si>
+    <t>HomeWork 2 Level Arrays</t>
+  </si>
+  <si>
+    <t>HomeWork 2 Level Conditions + Loops</t>
+  </si>
+  <si>
+    <t>Task_Logical_operatprs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,23 +153,8 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,11 +165,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -219,11 +214,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -252,20 +246,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -544,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,19 +552,19 @@
       <c r="C1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -716,7 +705,9 @@
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="G6" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11" t="s">
@@ -746,7 +737,9 @@
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="G7" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11" t="s">
@@ -809,112 +802,198 @@
       <c r="O9" s="8"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="15">
+      <c r="B11" s="9">
         <v>9</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="9">
+        <v>10</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="B13" s="9">
+        <v>11</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+      <c r="B14" s="9">
+        <v>12</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="B15" s="9">
+        <v>13</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="9">
+        <v>14</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A1:P1">

--- a/HomeWorks.xlsx
+++ b/HomeWorks.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\j2_info\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="8910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8910"/>
   </bookViews>
   <sheets>
     <sheet name=" HomeExercises" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -128,14 +123,14 @@
     <t>HomeWork 2 Level Conditions + Loops</t>
   </si>
   <si>
-    <t>Task_Logical_operatprs</t>
+    <t>Task_Logical_operators</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,7 +250,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -313,7 +308,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -348,7 +343,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -525,21 +520,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
@@ -548,7 +543,7 @@
     <col min="5" max="15" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="2" customFormat="1">
       <c r="C1" s="4" t="s">
         <v>26</v>
       </c>
@@ -566,7 +561,7 @@
       <c r="N1" s="14"/>
       <c r="O1" s="14"/>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="120" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -613,7 +608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="45">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -635,7 +630,7 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
     </row>
-    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="30">
       <c r="B4" s="9">
         <v>2</v>
       </c>
@@ -671,7 +666,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="45">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -693,7 +688,7 @@
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
     </row>
-    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="30">
       <c r="B6" s="9">
         <v>4</v>
       </c>
@@ -725,7 +720,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="45">
       <c r="B7" s="9">
         <v>5</v>
       </c>
@@ -757,7 +752,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -779,7 +774,7 @@
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -801,7 +796,7 @@
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="B10" s="12">
         <v>8</v>
       </c>
@@ -823,7 +818,7 @@
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="B11" s="9">
         <v>9</v>
       </c>
@@ -853,7 +848,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="B12" s="9">
         <v>10</v>
       </c>
@@ -875,7 +870,7 @@
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="B13" s="9">
         <v>11</v>
       </c>
@@ -897,7 +892,7 @@
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="B14" s="9">
         <v>12</v>
       </c>
@@ -919,7 +914,7 @@
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="B15" s="9">
         <v>13</v>
       </c>
@@ -941,7 +936,7 @@
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="B16" s="9">
         <v>14</v>
       </c>
@@ -963,7 +958,7 @@
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15">
       <c r="B17" s="1"/>
       <c r="C17" s="7"/>
       <c r="D17" s="1"/>
@@ -979,7 +974,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15">
       <c r="B18" s="1"/>
       <c r="C18" s="7"/>
       <c r="D18" s="1"/>
